--- a/shinyApp/Glossary/Template.xlsx
+++ b/shinyApp/Glossary/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyleo\Box\Internet Of Water\GitHub\Glossary\shinyApp\Glossary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/shinyApp/Glossary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73849B34-4F2E-4846-A9FE-DFD1079D72BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF84B85-59D9-5149-83ED-2DBC36B6C301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1845" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="3300" yWindow="1840" windowWidth="19200" windowHeight="11380" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Term</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Terms about entities providing drinking water, wastewater removal, and stormwater management services and the regulation thereof</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -469,20 +472,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,6 +509,9 @@
       </c>
       <c r="H1" t="s">
         <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -529,21 +535,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -569,12 +576,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
         <v>18</v>
       </c>
@@ -582,7 +589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -590,7 +597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>19</v>
       </c>
@@ -598,12 +605,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -611,12 +618,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -625,7 +632,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:G9">
+  <sortState ref="C1:G9">
     <sortCondition ref="G1:G9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
